--- a/td_three_prediction_lstm_v_correct_dir/player_ranking_dir/dt_possibility_back_difference_lstm_player_ranking_byOthers_2017-08-14.xlsx
+++ b/td_three_prediction_lstm_v_correct_dir/player_ranking_dir/dt_possibility_back_difference_lstm_player_ranking_byOthers_2017-08-14.xlsx
@@ -5,2737 +5,2742 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="907">
   <si>
-    <t>PlayerName</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>PlusMinus</t>
-  </si>
-  <si>
-    <t>GWG</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>SHG</t>
-  </si>
-  <si>
-    <t>FaceoffWinPercentage</t>
-  </si>
-  <si>
-    <t>SHP</t>
-  </si>
-  <si>
-    <t>PPG</t>
-  </si>
-  <si>
-    <t>PIM</t>
-  </si>
-  <si>
-    <t>ShiftsPerGame</t>
-  </si>
-  <si>
-    <t>OTG</t>
-  </si>
-  <si>
-    <t>PointPerGame</t>
-  </si>
-  <si>
-    <t>PPP</t>
-  </si>
-  <si>
-    <t>ShootingPercentage</t>
-  </si>
-  <si>
-    <t>Coefficient with value</t>
-  </si>
-  <si>
-    <t>Taylor Hall</t>
-  </si>
-  <si>
-    <t>Joe Pavelski</t>
-  </si>
-  <si>
-    <t>Johnny Gaudreau</t>
-  </si>
-  <si>
-    <t>Anze Kopitar</t>
-  </si>
-  <si>
-    <t>Erik Karlsson</t>
-  </si>
-  <si>
-    <t>Patrice Bergeron</t>
-  </si>
-  <si>
-    <t>Mark Scheifele</t>
-  </si>
-  <si>
-    <t>Sidney Crosby</t>
-  </si>
-  <si>
-    <t>Claude Giroux</t>
-  </si>
-  <si>
-    <t>Dustin Byfuglien</t>
-  </si>
-  <si>
-    <t>Jamie Benn</t>
-  </si>
-  <si>
-    <t>Patrick Kane</t>
-  </si>
-  <si>
-    <t>Mark Stone</t>
-  </si>
-  <si>
-    <t>Blake Wheeler</t>
-  </si>
-  <si>
-    <t>Tyler Toffoli</t>
-  </si>
-  <si>
-    <t>Charlie Coyle</t>
-  </si>
-  <si>
-    <t>Tyson Barrie</t>
-  </si>
-  <si>
-    <t>Jonathan Toews</t>
-  </si>
-  <si>
-    <t>Sean Monahan</t>
-  </si>
-  <si>
-    <t>Vladimir Tarasenko</t>
-  </si>
-  <si>
-    <t>Max Pacioretty</t>
-  </si>
-  <si>
-    <t>Aleksander Barkov</t>
-  </si>
-  <si>
-    <t>Alex Pietrangelo</t>
-  </si>
-  <si>
-    <t>Mikkel Boedker</t>
-  </si>
-  <si>
-    <t>Nikita Kucherov</t>
-  </si>
-  <si>
-    <t>Mika Zibanejad</t>
-  </si>
-  <si>
-    <t>Drew Doughty</t>
-  </si>
-  <si>
-    <t>Ryan O'Reilly</t>
-  </si>
-  <si>
-    <t>Brad Marchand</t>
-  </si>
-  <si>
-    <t>Patric Hornqvist</t>
-  </si>
-  <si>
-    <t>John Tavares</t>
-  </si>
-  <si>
-    <t>Derick Brassard</t>
-  </si>
-  <si>
-    <t>Loui Eriksson</t>
-  </si>
-  <si>
-    <t>Cam Atkinson</t>
-  </si>
-  <si>
-    <t>Derek Stepan</t>
-  </si>
-  <si>
-    <t>Patrick Marleau</t>
-  </si>
-  <si>
-    <t>Roman Josi</t>
-  </si>
-  <si>
-    <t>Steven Stamkos</t>
-  </si>
-  <si>
-    <t>Ryan Suter</t>
-  </si>
-  <si>
-    <t>T.J. Oshie</t>
-  </si>
-  <si>
-    <t>Wayne Simmonds</t>
-  </si>
-  <si>
-    <t>Nicklas Backstrom</t>
-  </si>
-  <si>
-    <t>Alex Galchenyuk</t>
-  </si>
-  <si>
-    <t>Daniel Sedin</t>
-  </si>
-  <si>
-    <t>Brayden Schenn</t>
-  </si>
-  <si>
-    <t>Jack Eichel</t>
-  </si>
-  <si>
-    <t>Nazem Kadri</t>
-  </si>
-  <si>
-    <t>Mikael Backlund</t>
-  </si>
-  <si>
-    <t>Pavel Datsyuk</t>
-  </si>
-  <si>
-    <t>David Backes</t>
-  </si>
-  <si>
-    <t>Filip Forsberg</t>
-  </si>
-  <si>
-    <t>Nathan MacKinnon</t>
-  </si>
-  <si>
-    <t>Evgeni Malkin</t>
-  </si>
-  <si>
-    <t>Matt Duchene</t>
-  </si>
-  <si>
-    <t>Mats Zuccarello</t>
-  </si>
-  <si>
-    <t>Zack Smith</t>
-  </si>
-  <si>
-    <t>Artemi Panarin</t>
-  </si>
-  <si>
-    <t>Tyler Myers</t>
-  </si>
-  <si>
-    <t>PA Parenteau</t>
-  </si>
-  <si>
-    <t>Oliver Ekman-Larsson</t>
-  </si>
-  <si>
-    <t>Mikko Koivu</t>
-  </si>
-  <si>
-    <t>Brandon Saad</t>
-  </si>
-  <si>
-    <t>Mikael Granlund</t>
-  </si>
-  <si>
-    <t>Jakub Voracek</t>
-  </si>
-  <si>
-    <t>Vincent Trocheck</t>
-  </si>
-  <si>
-    <t>David Krejci</t>
-  </si>
-  <si>
-    <t>Adam Henrique</t>
-  </si>
-  <si>
-    <t>Jean-Gabriel Pageau</t>
-  </si>
-  <si>
-    <t>Jeff Carter</t>
-  </si>
-  <si>
-    <t>Reilly Smith</t>
-  </si>
-  <si>
-    <t>Phil Kessel</t>
-  </si>
-  <si>
-    <t>Gabriel Landeskog</t>
-  </si>
-  <si>
-    <t>Jordan Eberle</t>
-  </si>
-  <si>
-    <t>Mark Giordano</t>
-  </si>
-  <si>
-    <t>James Neal</t>
-  </si>
-  <si>
-    <t>Jordan Staal</t>
-  </si>
-  <si>
-    <t>Zach Parise</t>
-  </si>
-  <si>
-    <t>Nino Niederreiter</t>
-  </si>
-  <si>
-    <t>Kyle Palmieri</t>
-  </si>
-  <si>
-    <t>Sam Reinhart</t>
-  </si>
-  <si>
-    <t>Lars Eller</t>
-  </si>
-  <si>
-    <t>Alex Ovechkin</t>
-  </si>
-  <si>
-    <t>Frans Nielsen</t>
-  </si>
-  <si>
-    <t>Evgeny Kuznetsov</t>
-  </si>
-  <si>
-    <t>Leo Komarov</t>
-  </si>
-  <si>
-    <t>Bo Horvat</t>
-  </si>
-  <si>
-    <t>Andrew Ladd</t>
-  </si>
-  <si>
-    <t>Boone Jenner</t>
-  </si>
-  <si>
-    <t>Ryan Kesler</t>
-  </si>
-  <si>
-    <t>Leon Draisaitl</t>
-  </si>
-  <si>
-    <t>Mike Hoffman</t>
-  </si>
-  <si>
-    <t>Alexander Steen</t>
-  </si>
-  <si>
-    <t>Chris Kunitz</t>
-  </si>
-  <si>
-    <t>TJ Brodie</t>
-  </si>
-  <si>
-    <t>Kevin Shattenkirk</t>
-  </si>
-  <si>
-    <t>Kris Letang</t>
-  </si>
-  <si>
-    <t>Mathieu Perreault</t>
-  </si>
-  <si>
-    <t>Sean Couturier</t>
-  </si>
-  <si>
-    <t>Tomas Tatar</t>
-  </si>
-  <si>
-    <t>Jason Spezza</t>
-  </si>
-  <si>
-    <t>Jeff Skinner</t>
-  </si>
-  <si>
-    <t>Victor Hedman</t>
-  </si>
-  <si>
-    <t>Dylan Larkin</t>
-  </si>
-  <si>
-    <t>Jared Spurgeon</t>
-  </si>
-  <si>
-    <t>Justin Williams</t>
-  </si>
-  <si>
-    <t>Tomas Hertl</t>
-  </si>
-  <si>
-    <t>Ondrej Palat</t>
-  </si>
-  <si>
-    <t>Vladislav Namestnikov</t>
-  </si>
-  <si>
-    <t>Bobby Ryan</t>
-  </si>
-  <si>
-    <t>Teddy Purcell</t>
-  </si>
-  <si>
-    <t>Carl Soderberg</t>
-  </si>
-  <si>
-    <t>Jannik Hansen</t>
-  </si>
-  <si>
-    <t>Tyler Seguin</t>
-  </si>
-  <si>
-    <t>Drew Stafford</t>
-  </si>
-  <si>
-    <t>Corey Perry</t>
-  </si>
-  <si>
-    <t>Connor McDavid</t>
-  </si>
-  <si>
-    <t>Troy Brouwer</t>
-  </si>
-  <si>
-    <t>Michael Grabner</t>
-  </si>
-  <si>
-    <t>Shayne Gostisbehere</t>
-  </si>
-  <si>
-    <t>Ryan Getzlaf</t>
-  </si>
-  <si>
-    <t>Jason Zucker</t>
-  </si>
-  <si>
-    <t>J.T. Miller</t>
-  </si>
-  <si>
-    <t>Eric Staal</t>
-  </si>
-  <si>
-    <t>Alex Killorn</t>
-  </si>
-  <si>
-    <t>Sam Bennett</t>
-  </si>
-  <si>
-    <t>Bryan Little</t>
-  </si>
-  <si>
-    <t>Ryan Nugent-Hopkins</t>
-  </si>
-  <si>
-    <t>Jaromir Jagr</t>
-  </si>
-  <si>
-    <t>Artem Anisimov</t>
-  </si>
-  <si>
-    <t>Justin Abdelkader</t>
-  </si>
-  <si>
-    <t>Paul Stastny</t>
-  </si>
-  <si>
-    <t>Patrick Sharp</t>
-  </si>
-  <si>
-    <t>Chris Kreider</t>
-  </si>
-  <si>
-    <t>Blake Comeau</t>
-  </si>
-  <si>
-    <t>Jussi Jokinen</t>
-  </si>
-  <si>
-    <t>Brock Nelson</t>
-  </si>
-  <si>
-    <t>Gustav Nyquist</t>
-  </si>
-  <si>
-    <t>Carl Hagelin</t>
-  </si>
-  <si>
-    <t>Tyler Johnson</t>
-  </si>
-  <si>
-    <t>Matt Cullen</t>
-  </si>
-  <si>
-    <t>Jarome Iginla</t>
-  </si>
-  <si>
-    <t>Nick Leddy</t>
-  </si>
-  <si>
-    <t>Morgan Rielly</t>
-  </si>
-  <si>
-    <t>Lee Stempniak</t>
-  </si>
-  <si>
-    <t>Brendan Gallagher</t>
-  </si>
-  <si>
-    <t>Cam Fowler</t>
-  </si>
-  <si>
-    <t>Nikolaj Ehlers</t>
-  </si>
-  <si>
-    <t>Anthony Duclair</t>
-  </si>
-  <si>
-    <t>Teuvo Teravainen</t>
-  </si>
-  <si>
-    <t>Henrik Zetterberg</t>
-  </si>
-  <si>
-    <t>Joel Ward</t>
-  </si>
-  <si>
-    <t>Craig Smith</t>
-  </si>
-  <si>
-    <t>Dustin Brown</t>
-  </si>
-  <si>
-    <t>Tomas Plekanec</t>
-  </si>
-  <si>
-    <t>Valtteri Filppula</t>
-  </si>
-  <si>
-    <t>Alexander Burmistrov</t>
-  </si>
-  <si>
-    <t>Shane Doan</t>
-  </si>
-  <si>
-    <t>Milan Lucic</t>
-  </si>
-  <si>
-    <t>Nick Foligno</t>
-  </si>
-  <si>
-    <t>Robby Fabbri</t>
-  </si>
-  <si>
-    <t>Elias Lindholm</t>
-  </si>
-  <si>
-    <t>Mark Streit</t>
-  </si>
-  <si>
-    <t>Marcus Johansson</t>
-  </si>
-  <si>
-    <t>Rickard Rakell</t>
-  </si>
-  <si>
-    <t>Marian Hossa</t>
-  </si>
-  <si>
-    <t>Jonathan Huberdeau</t>
-  </si>
-  <si>
-    <t>P.K. Subban</t>
-  </si>
-  <si>
-    <t>Travis Zajac</t>
-  </si>
-  <si>
-    <t>Brent Burns</t>
-  </si>
-  <si>
-    <t>Tomas Fleischmann</t>
-  </si>
-  <si>
-    <t>Antoine Vermette</t>
-  </si>
-  <si>
-    <t>Brian Gionta</t>
-  </si>
-  <si>
-    <t>John Klingberg</t>
-  </si>
-  <si>
-    <t>Jacob Trouba</t>
-  </si>
-  <si>
-    <t>Jake Muzzin</t>
-  </si>
-  <si>
-    <t>Christopher Tanev</t>
-  </si>
-  <si>
-    <t>Riley Sheahan</t>
-  </si>
-  <si>
-    <t>Martin Hanzal</t>
-  </si>
-  <si>
-    <t>Dougie Hamilton</t>
-  </si>
-  <si>
-    <t>Dan Boyle</t>
-  </si>
-  <si>
-    <t>Max Domi</t>
-  </si>
-  <si>
-    <t>Brandon Dubinsky</t>
-  </si>
-  <si>
-    <t>Joe Thornton</t>
-  </si>
-  <si>
-    <t>Calle Jarnkrok</t>
-  </si>
-  <si>
-    <t>Tobias Rieder</t>
-  </si>
-  <si>
-    <t>Erik Haula</t>
-  </si>
-  <si>
-    <t>Victor Rask</t>
-  </si>
-  <si>
-    <t>Jason Pominville</t>
-  </si>
-  <si>
-    <t>Joe Colborne</t>
-  </si>
-  <si>
-    <t>Cody Ceci</t>
-  </si>
-  <si>
-    <t>Darren Helm</t>
-  </si>
-  <si>
-    <t>Henrik Sedin</t>
-  </si>
-  <si>
-    <t>Brad Richardson</t>
-  </si>
-  <si>
-    <t>William Karlsson</t>
-  </si>
-  <si>
-    <t>Jesper Fast</t>
-  </si>
-  <si>
-    <t>John Mitchell</t>
-  </si>
-  <si>
-    <t>Evander Kane</t>
-  </si>
-  <si>
-    <t>Ryan Johansen</t>
-  </si>
-  <si>
-    <t>Michael Frolik</t>
-  </si>
-  <si>
-    <t>Anton Stralman</t>
-  </si>
-  <si>
-    <t>Rasmus Ristolainen</t>
-  </si>
-  <si>
-    <t>Ben Hutton</t>
-  </si>
-  <si>
-    <t>Kyle Okposo</t>
-  </si>
-  <si>
-    <t>Cody Eakin</t>
-  </si>
-  <si>
-    <t>Michael Raffl</t>
-  </si>
-  <si>
-    <t>Brent Seabrook</t>
-  </si>
-  <si>
-    <t>Jamie McGinn</t>
-  </si>
-  <si>
-    <t>Matt Niskanen</t>
-  </si>
-  <si>
-    <t>Marcus Foligno</t>
-  </si>
-  <si>
-    <t>Jori Lehtera</t>
-  </si>
-  <si>
-    <t>Dale Weise</t>
-  </si>
-  <si>
-    <t>Erik Johnson</t>
-  </si>
-  <si>
-    <t>Shawn Matthias</t>
-  </si>
-  <si>
-    <t>Matt Read</t>
-  </si>
-  <si>
-    <t>Justin Faulk</t>
-  </si>
-  <si>
-    <t>Jakob Silfverberg</t>
-  </si>
-  <si>
-    <t>Jordan Martinook</t>
-  </si>
-  <si>
-    <t>Rick Nash</t>
-  </si>
-  <si>
-    <t>Colton Parayko</t>
-  </si>
-  <si>
-    <t>Adam Lowry</t>
-  </si>
-  <si>
-    <t>Andrew Cogliano</t>
-  </si>
-  <si>
-    <t>John Carlson</t>
-  </si>
-  <si>
-    <t>Nick Bjugstad</t>
-  </si>
-  <si>
-    <t>Johan Larsson</t>
-  </si>
-  <si>
-    <t>Kyle Turris</t>
-  </si>
-  <si>
-    <t>Seth Jones</t>
-  </si>
-  <si>
-    <t>Sven Baertschi</t>
-  </si>
-  <si>
-    <t>Sami Vatanen</t>
-  </si>
-  <si>
-    <t>Daniel Winnik</t>
-  </si>
-  <si>
-    <t>Alexandre Burrows</t>
-  </si>
-  <si>
-    <t>J.T. Brown</t>
-  </si>
-  <si>
-    <t>Radim Vrbata</t>
-  </si>
-  <si>
-    <t>Mark Letestu</t>
-  </si>
-  <si>
-    <t>Alex Goligoski</t>
-  </si>
-  <si>
-    <t>Trevor Lewis</t>
-  </si>
-  <si>
-    <t>Ryan McDonagh</t>
-  </si>
-  <si>
-    <t>Ryan Spooner</t>
-  </si>
-  <si>
-    <t>Andrei Markov</t>
-  </si>
-  <si>
-    <t>Matt Beleskey</t>
-  </si>
-  <si>
-    <t>Brian Campbell</t>
-  </si>
-  <si>
-    <t>Viktor Stalberg</t>
-  </si>
-  <si>
-    <t>Tyler Bozak</t>
-  </si>
-  <si>
-    <t>Ryan Murray</t>
-  </si>
-  <si>
-    <t>Andre Burakovsky</t>
-  </si>
-  <si>
-    <t>Alex Tanguay</t>
-  </si>
-  <si>
-    <t>Kevin Hayes</t>
-  </si>
-  <si>
-    <t>Tanner Pearson</t>
-  </si>
-  <si>
-    <t>Torey Krug</t>
-  </si>
-  <si>
-    <t>Mattias Janmark</t>
-  </si>
-  <si>
-    <t>Jake Gardiner</t>
-  </si>
-  <si>
-    <t>Valeri Nichushkin</t>
-  </si>
-  <si>
-    <t>Shea Weber</t>
-  </si>
-  <si>
-    <t>Logan Couture</t>
-  </si>
-  <si>
-    <t>Hampus Lindholm</t>
-  </si>
-  <si>
-    <t>Ales Hemsky</t>
-  </si>
-  <si>
-    <t>Micheal Ferland</t>
-  </si>
-  <si>
-    <t>Scott Hartnell</t>
-  </si>
-  <si>
-    <t>Mike Fisher</t>
-  </si>
-  <si>
-    <t>Nick Holden</t>
-  </si>
-  <si>
-    <t>Alexander Wennberg</t>
-  </si>
-  <si>
-    <t>Mike Green</t>
-  </si>
-  <si>
-    <t>Duncan Keith</t>
-  </si>
-  <si>
-    <t>Oscar Lindberg</t>
-  </si>
-  <si>
-    <t>Niklas Kronwall</t>
-  </si>
-  <si>
-    <t>Mikhail Grigorenko</t>
-  </si>
-  <si>
-    <t>Benoit Pouliot</t>
-  </si>
-  <si>
-    <t>Matt Calvert</t>
-  </si>
-  <si>
-    <t>Andrew Shaw</t>
-  </si>
-  <si>
-    <t>Mattias Ekholm</t>
-  </si>
-  <si>
-    <t>Brian Dumoulin</t>
-  </si>
-  <si>
-    <t>Nail Yakupov</t>
-  </si>
-  <si>
-    <t>Marian Gaborik</t>
-  </si>
-  <si>
-    <t>Peter Holland</t>
-  </si>
-  <si>
-    <t>Aaron Ekblad</t>
-  </si>
-  <si>
-    <t>Chris VandeVelde</t>
-  </si>
-  <si>
-    <t>Torrey Mitchell</t>
-  </si>
-  <si>
-    <t>Thomas Vanek</t>
-  </si>
-  <si>
-    <t>Matt Stajan</t>
-  </si>
-  <si>
-    <t>David Desharnais</t>
-  </si>
-  <si>
-    <t>Alex Chiasson</t>
-  </si>
-  <si>
-    <t>Pierre-Edouard Bellemare</t>
-  </si>
-  <si>
-    <t>Antoine Roussel</t>
-  </si>
-  <si>
-    <t>Dan Girardi</t>
-  </si>
-  <si>
-    <t>Matt Bartkowski</t>
-  </si>
-  <si>
-    <t>Jiri Hudler</t>
-  </si>
-  <si>
-    <t>Brad Richards</t>
-  </si>
-  <si>
-    <t>Casey Cizikas</t>
-  </si>
-  <si>
-    <t>Joonas Donskoi</t>
-  </si>
-  <si>
-    <t>Noah Hanifin</t>
-  </si>
-  <si>
-    <t>Zemgus Girgensons</t>
-  </si>
-  <si>
-    <t>John-Michael Liles</t>
-  </si>
-  <si>
-    <t>Josh Bailey</t>
-  </si>
-  <si>
-    <t>Paul Byron</t>
-  </si>
-  <si>
-    <t>Brandon Pirri</t>
-  </si>
-  <si>
-    <t>Riley Nash</t>
-  </si>
-  <si>
-    <t>Chris Tierney</t>
-  </si>
-  <si>
-    <t>Curtis Lazar</t>
-  </si>
-  <si>
-    <t>Ryan Garbutt</t>
-  </si>
-  <si>
-    <t>Brayden McNabb</t>
-  </si>
-  <si>
-    <t>David Perron</t>
-  </si>
-  <si>
-    <t>Anders Lee</t>
-  </si>
-  <si>
-    <t>Alec Martinez</t>
-  </si>
-  <si>
-    <t>Nick Bonino</t>
-  </si>
-  <si>
-    <t>Keith Yandle</t>
-  </si>
-  <si>
-    <t>Trevor van Riemsdyk</t>
-  </si>
-  <si>
-    <t>Jonas Brodin</t>
-  </si>
-  <si>
-    <t>David Schlemko</t>
-  </si>
-  <si>
-    <t>Jared McCann</t>
-  </si>
-  <si>
-    <t>Matt Dumba</t>
-  </si>
-  <si>
-    <t>Mike Ribeiro</t>
-  </si>
-  <si>
-    <t>Jimmy Hayes</t>
-  </si>
-  <si>
-    <t>Brian Boyle</t>
-  </si>
-  <si>
-    <t>Matt Moulson</t>
-  </si>
-  <si>
-    <t>Dion Phaneuf</t>
-  </si>
-  <si>
-    <t>Dmitry Orlov</t>
-  </si>
-  <si>
-    <t>Nikolay Kulemin</t>
-  </si>
-  <si>
-    <t>Adam Larsson</t>
-  </si>
-  <si>
-    <t>Radko Gudas</t>
-  </si>
-  <si>
-    <t>Ryan Callahan</t>
-  </si>
-  <si>
-    <t>Ryan Strome</t>
-  </si>
-  <si>
-    <t>Devante Smith-Pelly</t>
-  </si>
-  <si>
-    <t>Luke Glendening</t>
-  </si>
-  <si>
-    <t>Ryan Ellis</t>
-  </si>
-  <si>
-    <t>Dominic Moore</t>
-  </si>
-  <si>
-    <t>Luke Schenn</t>
-  </si>
-  <si>
-    <t>Justin Braun</t>
-  </si>
-  <si>
-    <t>Josh Jooris</t>
-  </si>
-  <si>
-    <t>Justin Schultz</t>
-  </si>
-  <si>
-    <t>Marco Scandella</t>
-  </si>
-  <si>
-    <t>Andrej Sekera</t>
-  </si>
-  <si>
-    <t>Kris Versteeg</t>
-  </si>
-  <si>
-    <t>Jason Chimera</t>
-  </si>
-  <si>
-    <t>Michael Cammalleri</t>
-  </si>
-  <si>
-    <t>Kevin Klein</t>
-  </si>
-  <si>
-    <t>Michael Stone</t>
-  </si>
-  <si>
-    <t>Olli Maatta</t>
-  </si>
-  <si>
-    <t>Eric Fehr</t>
-  </si>
-  <si>
-    <t>David Pastrnak</t>
-  </si>
-  <si>
-    <t>Danny DeKeyser</t>
-  </si>
-  <si>
-    <t>Brett Connolly</t>
-  </si>
-  <si>
-    <t>Emerson Etem</t>
-  </si>
-  <si>
-    <t>Scott Laughton</t>
-  </si>
-  <si>
-    <t>Andrew Desjardins</t>
-  </si>
-  <si>
-    <t>Colin Wilson</t>
-  </si>
-  <si>
-    <t>Alexander Edler</t>
-  </si>
-  <si>
-    <t>Jaden Schwartz</t>
-  </si>
-  <si>
-    <t>Dan Hamhuis</t>
-  </si>
-  <si>
-    <t>Shawn Horcoff</t>
-  </si>
-  <si>
-    <t>James van Riemsdyk</t>
-  </si>
-  <si>
-    <t>Joakim Nordstrom</t>
-  </si>
-  <si>
-    <t>Kris Russell</t>
-  </si>
-  <si>
-    <t>Mikhail Grabovski</t>
-  </si>
-  <si>
-    <t>Melker Karlsson</t>
-  </si>
-  <si>
-    <t>Cody Franson</t>
-  </si>
-  <si>
-    <t>Matt Nieto</t>
-  </si>
-  <si>
-    <t>Francois Beauchemin</t>
-  </si>
-  <si>
-    <t>Brett Pesce</t>
-  </si>
-  <si>
-    <t>Trevor Daley</t>
-  </si>
-  <si>
-    <t>Tom Wilson</t>
-  </si>
-  <si>
-    <t>Nate Schmidt</t>
-  </si>
-  <si>
-    <t>Jonathan Ericsson</t>
-  </si>
-  <si>
-    <t>Karl Alzner</t>
-  </si>
-  <si>
-    <t>Jacob Josefson</t>
-  </si>
-  <si>
-    <t>Colton Sceviour</t>
-  </si>
-  <si>
-    <t>Josh Manson</t>
-  </si>
-  <si>
-    <t>David Jones</t>
-  </si>
-  <si>
-    <t>Kyle Quincey</t>
-  </si>
-  <si>
-    <t>Travis Hamonic</t>
-  </si>
-  <si>
-    <t>Kyle Chipchura</t>
-  </si>
-  <si>
-    <t>Brooks Laich</t>
-  </si>
-  <si>
-    <t>Vernon Fiddler</t>
-  </si>
-  <si>
-    <t>Ryan White</t>
-  </si>
-  <si>
-    <t>Jake McCabe</t>
-  </si>
-  <si>
-    <t>Adam Cracknell</t>
-  </si>
-  <si>
-    <t>Marc Staal</t>
-  </si>
-  <si>
-    <t>Byron Froese</t>
-  </si>
-  <si>
-    <t>Landon Ferraro</t>
-  </si>
-  <si>
-    <t>Kyle Brodziak</t>
-  </si>
-  <si>
-    <t>Andrew Copp</t>
-  </si>
-  <si>
-    <t>Kevin Bieksa</t>
-  </si>
-  <si>
-    <t>Jay McClement</t>
-  </si>
-  <si>
-    <t>Jay Beagle</t>
-  </si>
-  <si>
-    <t>Scottie Upshall</t>
-  </si>
-  <si>
-    <t>David Savard</t>
-  </si>
-  <si>
-    <t>Stephen Gionta</t>
-  </si>
-  <si>
-    <t>Linden Vey</t>
-  </si>
-  <si>
-    <t>Cedric Paquette</t>
-  </si>
-  <si>
-    <t>Jaccob Slavin</t>
-  </si>
-  <si>
-    <t>Zach Bogosian</t>
-  </si>
-  <si>
-    <t>Sergey Kalinin</t>
-  </si>
-  <si>
-    <t>Justin Fontaine</t>
-  </si>
-  <si>
-    <t>Chris Thorburn</t>
-  </si>
-  <si>
-    <t>Matt Hendricks</t>
-  </si>
-  <si>
-    <t>Jason Demers</t>
-  </si>
-  <si>
-    <t>Andy Greene</t>
-  </si>
-  <si>
-    <t>Jonathan Marchessault</t>
-  </si>
-  <si>
-    <t>Cal Clutterbuck</t>
-  </si>
-  <si>
-    <t>David Legwand</t>
-  </si>
-  <si>
-    <t>Anton Lander</t>
-  </si>
-  <si>
-    <t>Jarret Stoll</t>
-  </si>
-  <si>
-    <t>Tommy Wingels</t>
-  </si>
-  <si>
-    <t>Jeff Petry</t>
-  </si>
-  <si>
-    <t>Andrej Sustr</t>
-  </si>
-  <si>
-    <t>Dmitrij Jaskin</t>
-  </si>
-  <si>
-    <t>Braydon Coburn</t>
-  </si>
-  <si>
-    <t>Joffrey Lupul</t>
-  </si>
-  <si>
-    <t>Patrick Maroon</t>
-  </si>
-  <si>
-    <t>Andrej Nestrasil</t>
-  </si>
-  <si>
-    <t>Lauri Korpikoski</t>
-  </si>
-  <si>
-    <t>Shane Prince</t>
-  </si>
-  <si>
-    <t>Markus Granlund</t>
-  </si>
-  <si>
-    <t>Dennis Wideman</t>
-  </si>
-  <si>
-    <t>Nick Spaling</t>
-  </si>
-  <si>
-    <t>Matt Carle</t>
-  </si>
-  <si>
-    <t>Josh Gorges</t>
-  </si>
-  <si>
-    <t>Nick Shore</t>
-  </si>
-  <si>
-    <t>Brendan Smith</t>
-  </si>
-  <si>
-    <t>Chris Wideman</t>
-  </si>
-  <si>
-    <t>Zdeno Chara</t>
-  </si>
-  <si>
-    <t>Brad Boyes</t>
-  </si>
-  <si>
-    <t>Jack Skille</t>
-  </si>
-  <si>
-    <t>Mike Santorelli</t>
-  </si>
-  <si>
-    <t>Patrik Berglund</t>
-  </si>
-  <si>
-    <t>Matt Martin</t>
-  </si>
-  <si>
-    <t>Joel Armia</t>
-  </si>
-  <si>
-    <t>Calvin de Haan</t>
-  </si>
-  <si>
-    <t>Viktor Arvidsson</t>
-  </si>
-  <si>
-    <t>Phillip Danault</t>
-  </si>
-  <si>
-    <t>Mark Fayne</t>
-  </si>
-  <si>
-    <t>Kevin Connauton</t>
-  </si>
-  <si>
-    <t>Deryk Engelland</t>
-  </si>
-  <si>
-    <t>Toby Enstrom</t>
-  </si>
-  <si>
-    <t>Alexei Emelin</t>
-  </si>
-  <si>
-    <t>Bryan Rust</t>
-  </si>
-  <si>
-    <t>Brandon Davidson</t>
-  </si>
-  <si>
-    <t>Ron Hainsey</t>
-  </si>
-  <si>
-    <t>Chris Terry</t>
-  </si>
-  <si>
-    <t>Erik Condra</t>
-  </si>
-  <si>
-    <t>Derek Dorsett</t>
-  </si>
-  <si>
-    <t>Jack Johnson</t>
-  </si>
-  <si>
-    <t>Andreas Athanasiou</t>
-  </si>
-  <si>
-    <t>Derek MacKenzie</t>
-  </si>
-  <si>
-    <t>Sven Andrighetto</t>
-  </si>
-  <si>
-    <t>Carl Gunnarsson</t>
-  </si>
-  <si>
-    <t>Cody McLeod</t>
-  </si>
-  <si>
-    <t>Jake Virtanen</t>
-  </si>
-  <si>
-    <t>Dmitry Kulikov</t>
-  </si>
-  <si>
-    <t>Thomas Hickey</t>
-  </si>
-  <si>
-    <t>Ryan Carter</t>
-  </si>
-  <si>
-    <t>Marcus Kruger</t>
-  </si>
-  <si>
-    <t>Damon Severson</t>
-  </si>
-  <si>
-    <t>Ben Chiarot</t>
-  </si>
-  <si>
-    <t>Iiro Pakarinen</t>
-  </si>
-  <si>
-    <t>Jordin Tootoo</t>
-  </si>
-  <si>
-    <t>Vincent Lecavalier</t>
-  </si>
-  <si>
-    <t>Chris Neil</t>
-  </si>
-  <si>
-    <t>Conor Sheary</t>
-  </si>
-  <si>
-    <t>Paul Martin</t>
-  </si>
-  <si>
-    <t>Nick Cousins</t>
-  </si>
-  <si>
-    <t>Connor Murphy</t>
-  </si>
-  <si>
-    <t>Patrick Eaves</t>
-  </si>
-  <si>
-    <t>Darnell Nurse</t>
-  </si>
-  <si>
-    <t>Johnny Boychuk</t>
-  </si>
-  <si>
-    <t>Sam Gagner</t>
-  </si>
-  <si>
-    <t>Austin Watson</t>
-  </si>
-  <si>
-    <t>Andy Andreoff</t>
-  </si>
-  <si>
-    <t>Miikka Salomaki</t>
-  </si>
-  <si>
-    <t>Nathan Gerbe</t>
-  </si>
-  <si>
-    <t>Michael Del Zotto</t>
-  </si>
-  <si>
-    <t>Jason Garrison</t>
-  </si>
-  <si>
-    <t>Dwight King</t>
-  </si>
-  <si>
-    <t>Yannick Weber</t>
-  </si>
-  <si>
-    <t>Phillip Di Giuseppe</t>
-  </si>
-  <si>
-    <t>Evgeny Medvedev</t>
-  </si>
-  <si>
-    <t>Nathan Beaulieu</t>
-  </si>
-  <si>
-    <t>Milan Michalek</t>
-  </si>
-  <si>
-    <t>Magnus Paajarvi</t>
-  </si>
-  <si>
-    <t>Alex Biega</t>
-  </si>
-  <si>
-    <t>Ben Lovejoy</t>
-  </si>
-  <si>
-    <t>Boyd Gordon</t>
-  </si>
-  <si>
-    <t>Viktor Tikhonov</t>
-  </si>
-  <si>
-    <t>Lance Bouma</t>
-  </si>
-  <si>
-    <t>Zack Kassian</t>
-  </si>
-  <si>
-    <t>Johnny Oduya</t>
-  </si>
-  <si>
-    <t>Eric Gryba</t>
-  </si>
-  <si>
-    <t>Gregory Campbell</t>
-  </si>
-  <si>
-    <t>Marc Methot</t>
-  </si>
-  <si>
-    <t>Tyler Kennedy</t>
-  </si>
-  <si>
-    <t>Nicklas Grossmann</t>
-  </si>
-  <si>
-    <t>Alexey Marchenko</t>
-  </si>
-  <si>
-    <t>Jyrki Jokipakka</t>
-  </si>
-  <si>
-    <t>Mark Pysyk</t>
-  </si>
-  <si>
-    <t>Tom Kuhnhackl</t>
-  </si>
-  <si>
-    <t>Frank Vatrano</t>
-  </si>
-  <si>
-    <t>Nicolas Deslauriers</t>
-  </si>
-  <si>
-    <t>William Nylander</t>
-  </si>
-  <si>
-    <t>Radek Faksa</t>
-  </si>
-  <si>
-    <t>Joel Edmundson</t>
-  </si>
-  <si>
-    <t>Chris Wagner</t>
-  </si>
-  <si>
-    <t>Logan Shaw</t>
-  </si>
-  <si>
-    <t>Brandon Sutter</t>
-  </si>
-  <si>
-    <t>Jordie Benn</t>
-  </si>
-  <si>
-    <t>Brian Flynn</t>
-  </si>
-  <si>
-    <t>Dennis Seidenberg</t>
-  </si>
-  <si>
-    <t>Marc-Edouard Vlasic</t>
-  </si>
-  <si>
-    <t>Mike Brown</t>
-  </si>
-  <si>
-    <t>Andreas Martinsen</t>
-  </si>
-  <si>
-    <t>Nick Schultz</t>
-  </si>
-  <si>
-    <t>Nikita Nesterov</t>
-  </si>
-  <si>
-    <t>Luca Sbisa</t>
-  </si>
-  <si>
-    <t>Marek Zidlicky</t>
-  </si>
-  <si>
-    <t>Quinton Howden</t>
-  </si>
-  <si>
-    <t>Marko Dano</t>
-  </si>
-  <si>
-    <t>Greg Pateryn</t>
-  </si>
-  <si>
-    <t>Paul Gaustad</t>
-  </si>
-  <si>
-    <t>Kevin Porter</t>
-  </si>
-  <si>
-    <t>Chris Porter</t>
-  </si>
-  <si>
-    <t>Colin Greening</t>
-  </si>
-  <si>
-    <t>Ian Cole</t>
-  </si>
-  <si>
-    <t>Chris Stewart</t>
-  </si>
-  <si>
-    <t>Erik Gudbranson</t>
-  </si>
-  <si>
-    <t>Ryan Reaves</t>
-  </si>
-  <si>
-    <t>Jiri Sekac</t>
-  </si>
-  <si>
-    <t>Beau Bennett</t>
-  </si>
-  <si>
-    <t>Jakub Kindl</t>
-  </si>
-  <si>
-    <t>Mark Arcobello</t>
-  </si>
-  <si>
-    <t>Nic Petan</t>
-  </si>
-  <si>
-    <t>Mike Richards</t>
-  </si>
-  <si>
-    <t>Joseph Blandisi</t>
-  </si>
-  <si>
-    <t>Reid Boucher</t>
-  </si>
-  <si>
-    <t>R.J. Umberger</t>
-  </si>
-  <si>
-    <t>Alex Petrovic</t>
-  </si>
-  <si>
-    <t>Michal Rozsival</t>
-  </si>
-  <si>
-    <t>Matt Hunwick</t>
-  </si>
-  <si>
-    <t>Barret Jackman</t>
-  </si>
-  <si>
-    <t>Nate Thompson</t>
-  </si>
-  <si>
-    <t>Eric Nystrom</t>
-  </si>
-  <si>
-    <t>Bobby Farnham</t>
-  </si>
-  <si>
-    <t>Tanner Glass</t>
-  </si>
-  <si>
-    <t>John Moore</t>
-  </si>
-  <si>
-    <t>Robert Bortuzzo</t>
-  </si>
-  <si>
-    <t>Dainius Zubrus</t>
-  </si>
-  <si>
-    <t>Niklas Hjalmarsson</t>
-  </si>
-  <si>
-    <t>Brandon Manning</t>
-  </si>
-  <si>
-    <t>Teemu Pulkkinen</t>
-  </si>
-  <si>
-    <t>Matt Puempel</t>
-  </si>
-  <si>
-    <t>Oscar Klefbom</t>
-  </si>
-  <si>
-    <t>Willie Mitchell</t>
-  </si>
-  <si>
-    <t>Cody Hodgson</t>
-  </si>
-  <si>
-    <t>Ryan Dzingel</t>
-  </si>
-  <si>
-    <t>Christian Ehrhoff</t>
-  </si>
-  <si>
-    <t>Joonas Kemppainen</t>
-  </si>
-  <si>
-    <t>Chris Higgins</t>
-  </si>
-  <si>
-    <t>Roman Polak</t>
-  </si>
-  <si>
-    <t>Shawn Thornton</t>
-  </si>
-  <si>
-    <t>Tomas Jurco</t>
-  </si>
-  <si>
-    <t>Rob Scuderi</t>
-  </si>
-  <si>
-    <t>Zach Redmond</t>
-  </si>
-  <si>
-    <t>Max Talbot</t>
-  </si>
-  <si>
-    <t>Daniel Carr</t>
-  </si>
-  <si>
-    <t>Scott Wilson</t>
-  </si>
-  <si>
-    <t>Clayton Stoner</t>
-  </si>
-  <si>
-    <t>Mark Barberio</t>
-  </si>
-  <si>
-    <t>Jonathan Drouin</t>
-  </si>
-  <si>
-    <t>Brandon Prust</t>
-  </si>
-  <si>
-    <t>Colton Sissons</t>
-  </si>
-  <si>
-    <t>Tanner Kero</t>
-  </si>
-  <si>
-    <t>Kyle Clifford</t>
-  </si>
-  <si>
-    <t>Rene Bourque</t>
-  </si>
-  <si>
-    <t>Jay Bouwmeester</t>
-  </si>
-  <si>
-    <t>Jordan Nolan</t>
-  </si>
-  <si>
-    <t>Dylan McIlrath</t>
-  </si>
-  <si>
-    <t>Mark Borowiecki</t>
-  </si>
-  <si>
-    <t>Brandon Mashinter</t>
-  </si>
-  <si>
-    <t>Zach Hyman</t>
-  </si>
-  <si>
-    <t>Taylor Chorney</t>
-  </si>
-  <si>
-    <t>Scott Gomez</t>
-  </si>
-  <si>
-    <t>Michael McCarron</t>
-  </si>
-  <si>
-    <t>Brad Malone</t>
-  </si>
-  <si>
-    <t>Brenden Dillon</t>
-  </si>
-  <si>
-    <t>Fedor Tyutin</t>
-  </si>
-  <si>
-    <t>Richard Panik</t>
-  </si>
-  <si>
-    <t>Zach Trotman</t>
-  </si>
-  <si>
-    <t>Sergei Plotnikov</t>
-  </si>
-  <si>
-    <t>Tuomo Ruutu</t>
-  </si>
-  <si>
-    <t>Ryan Murphy</t>
-  </si>
-  <si>
-    <t>Nick Paul</t>
-  </si>
-  <si>
-    <t>Stefan Matteau</t>
-  </si>
-  <si>
-    <t>Dalton Prout</t>
-  </si>
-  <si>
-    <t>Stefan Elliott</t>
-  </si>
-  <si>
-    <t>Kevan Miller</t>
-  </si>
-  <si>
-    <t>Adam Clendening</t>
-  </si>
-  <si>
-    <t>Michael Latta</t>
-  </si>
-  <si>
-    <t>Zbynek Michalek</t>
-  </si>
-  <si>
-    <t>Tom Gilbert</t>
-  </si>
-  <si>
-    <t>Eric Gelinas</t>
-  </si>
-  <si>
-    <t>Ben Smith</t>
-  </si>
-  <si>
-    <t>Jared Cowen</t>
-  </si>
-  <si>
-    <t>Connor Carrick</t>
-  </si>
-  <si>
-    <t>Steve Downie</t>
-  </si>
-  <si>
-    <t>Shea Theodore</t>
-  </si>
-  <si>
-    <t>Michal Jordan</t>
-  </si>
-  <si>
-    <t>Brandon Bollig</t>
-  </si>
-  <si>
-    <t>Brendan Gaunce</t>
-  </si>
-  <si>
-    <t>Jordan Schroeder</t>
-  </si>
-  <si>
-    <t>Nick Ritchie</t>
-  </si>
-  <si>
-    <t>Derrick Pouliot</t>
-  </si>
-  <si>
-    <t>Rocco Grimaldi</t>
-  </si>
-  <si>
-    <t>Martin Marincin</t>
-  </si>
-  <si>
-    <t>Mason Raymond</t>
-  </si>
-  <si>
-    <t>Erik Gustafsson</t>
-  </si>
-  <si>
-    <t>Mike Blunden</t>
-  </si>
-  <si>
-    <t>Brooks Orpik</t>
-  </si>
-  <si>
-    <t>Andrew MacDonald</t>
-  </si>
-  <si>
-    <t>Carlo Colaiacovo</t>
-  </si>
-  <si>
-    <t>Adam Pardy</t>
-  </si>
-  <si>
-    <t>Frank Corrado</t>
-  </si>
-  <si>
-    <t>Oskar Sundqvist</t>
-  </si>
-  <si>
-    <t>Dylan DeMelo</t>
-  </si>
-  <si>
-    <t>Patrick Wiercioch</t>
-  </si>
-  <si>
-    <t>Paul Postma</t>
-  </si>
-  <si>
-    <t>Cody Goloubef</t>
-  </si>
-  <si>
-    <t>Jordan Oesterle</t>
-  </si>
-  <si>
-    <t>Simon Despres</t>
-  </si>
-  <si>
-    <t>Jiri Tlusty</t>
-  </si>
-  <si>
-    <t>Zac Rinaldo</t>
-  </si>
-  <si>
-    <t>Jamie McBain</t>
-  </si>
-  <si>
-    <t>Klas Dahlbeck</t>
-  </si>
-  <si>
-    <t>Tyler Ennis</t>
-  </si>
-  <si>
-    <t>Patrik Nemeth</t>
-  </si>
-  <si>
-    <t>David Clarkson</t>
-  </si>
-  <si>
-    <t>Max McCormick</t>
-  </si>
-  <si>
-    <t>Christian Folin</t>
-  </si>
-  <si>
-    <t>Matt Halischuk</t>
-  </si>
-  <si>
-    <t>Viktor Svedberg</t>
-  </si>
-  <si>
-    <t>Jacob De La Rose</t>
-  </si>
-  <si>
-    <t>Josh Leivo</t>
-  </si>
-  <si>
-    <t>Tyler Randell</t>
-  </si>
-  <si>
-    <t>Jon Merrill</t>
-  </si>
-  <si>
-    <t>Andrew Bodnarchuk</t>
-  </si>
-  <si>
-    <t>Nikita Soshnikov</t>
-  </si>
-  <si>
-    <t>Brock McGinn</t>
-  </si>
-  <si>
-    <t>Chris Bigras</t>
-  </si>
-  <si>
-    <t>Nate Prosser</t>
-  </si>
-  <si>
-    <t>Cal O'Reilly</t>
-  </si>
-  <si>
-    <t>Brian O'Neill</t>
-  </si>
-  <si>
-    <t>Kerby Rychel</t>
-  </si>
-  <si>
-    <t>Gabriel Bourque</t>
-  </si>
-  <si>
-    <t>Steven Kampfer</t>
-  </si>
-  <si>
-    <t>Nikita Zadorov</t>
-  </si>
-  <si>
-    <t>Adam McQuaid</t>
-  </si>
-  <si>
-    <t>Steve Ott</t>
-  </si>
-  <si>
-    <t>Anthony Mantha</t>
-  </si>
-  <si>
-    <t>Joakim Andersson</t>
-  </si>
-  <si>
-    <t>Mike Sislo</t>
-  </si>
-  <si>
-    <t>Chris Kelly</t>
-  </si>
-  <si>
-    <t>Daniel Sprong</t>
-  </si>
-  <si>
-    <t>Korbinian Holzer</t>
-  </si>
-  <si>
-    <t>Connor Brickley</t>
-  </si>
-  <si>
-    <t>Derek Grant</t>
-  </si>
-  <si>
-    <t>Nikita Tryamkin</t>
-  </si>
-  <si>
-    <t>Corban Knight</t>
-  </si>
-  <si>
-    <t>Ty Rattie</t>
-  </si>
-  <si>
-    <t>Bryan Bickell</t>
-  </si>
-  <si>
-    <t>Joe Morrow</t>
-  </si>
-  <si>
-    <t>Pascal Dupuis</t>
-  </si>
-  <si>
-    <t>Alexander Semin</t>
-  </si>
-  <si>
-    <t>Stanislav Galiev</t>
-  </si>
-  <si>
-    <t>Dave Bolland</t>
-  </si>
-  <si>
-    <t>David Warsofsky</t>
-  </si>
-  <si>
-    <t>Garrett Wilson</t>
-  </si>
-  <si>
-    <t>Daniel Paille</t>
-  </si>
-  <si>
-    <t>Colin Miller</t>
-  </si>
-  <si>
-    <t>Justin Falk</t>
-  </si>
-  <si>
-    <t>Brian Strait</t>
-  </si>
-  <si>
-    <t>Drew Miller</t>
-  </si>
-  <si>
-    <t>Garnet Hathaway</t>
-  </si>
-  <si>
-    <t>Ryan Pulock</t>
-  </si>
-  <si>
-    <t>Mike Reilly</t>
-  </si>
-  <si>
-    <t>Greg McKegg</t>
-  </si>
-  <si>
-    <t>Fredrik Claesson</t>
-  </si>
-  <si>
-    <t>Luke Gazdic</t>
-  </si>
-  <si>
-    <t>Jamie Oleksiak</t>
-  </si>
-  <si>
-    <t>Anthony Bitetto</t>
-  </si>
-  <si>
-    <t>Ladislav Smid</t>
-  </si>
-  <si>
-    <t>Steve Bernier</t>
-  </si>
-  <si>
-    <t>Petter Granberg</t>
-  </si>
-  <si>
-    <t>Patrik Elias</t>
-  </si>
-  <si>
-    <t>Jujhar Khaira</t>
-  </si>
-  <si>
-    <t>Tyler Gaudet</t>
-  </si>
-  <si>
-    <t>Brendan Leipsic</t>
-  </si>
-  <si>
-    <t>Jordan Weal</t>
-  </si>
-  <si>
-    <t>Jakub Nakladal</t>
-  </si>
-  <si>
-    <t>Hunter Shinkaruk</t>
-  </si>
-  <si>
-    <t>Alexandre Grenier</t>
-  </si>
-  <si>
-    <t>Anthony Peluso</t>
-  </si>
-  <si>
-    <t>Matt Tennyson</t>
-  </si>
-  <si>
-    <t>Rob Klinkhammer</t>
-  </si>
-  <si>
-    <t>Darren Dietz</t>
-  </si>
-  <si>
-    <t>Rich Clune</t>
-  </si>
-  <si>
-    <t>Brady Skjei</t>
-  </si>
-  <si>
-    <t>TJ Brennan</t>
-  </si>
-  <si>
-    <t>Oliver Bjorkstrand</t>
-  </si>
-  <si>
-    <t>Dave Dziurzynski</t>
-  </si>
-  <si>
-    <t>Noel Acciari</t>
-  </si>
-  <si>
-    <t>Justin Bailey</t>
-  </si>
-  <si>
-    <t>Tobias Lindberg</t>
-  </si>
-  <si>
-    <t>Victor Bartley</t>
-  </si>
-  <si>
-    <t>Mike Weber</t>
-  </si>
-  <si>
-    <t>Nikolay Goldobin</t>
-  </si>
-  <si>
-    <t>Stephen Johns</t>
-  </si>
-  <si>
-    <t>Michael Kostka</t>
-  </si>
-  <si>
-    <t>Mikko Rantanen</t>
-  </si>
-  <si>
-    <t>Michael Chaput</t>
-  </si>
-  <si>
-    <t>Brandon Gormley</t>
-  </si>
-  <si>
-    <t>Freddie Hamilton</t>
-  </si>
-  <si>
-    <t>Kyle Rau</t>
-  </si>
-  <si>
-    <t>Laurent Dauphin</t>
-  </si>
-  <si>
-    <t>Lucas Lessio</t>
-  </si>
-  <si>
-    <t>Kasperi Kapanen</t>
-  </si>
-  <si>
-    <t>Dustin Jeffrey</t>
-  </si>
-  <si>
-    <t>Hudson Fasching</t>
-  </si>
-  <si>
-    <t>Dennis Everberg</t>
-  </si>
-  <si>
-    <t>Scott Kosmachuk</t>
-  </si>
-  <si>
-    <t>Mirco Mueller</t>
-  </si>
-  <si>
-    <t>Nikita Nikitin</t>
-  </si>
-  <si>
-    <t>Petteri Lindbohm</t>
-  </si>
-  <si>
-    <t>Frederik Gauthier</t>
-  </si>
-  <si>
-    <t>Zach Sill</t>
-  </si>
-  <si>
-    <t>Jayson Megna</t>
-  </si>
-  <si>
-    <t>Joel Hanley</t>
-  </si>
-  <si>
-    <t>Travis Moen</t>
-  </si>
-  <si>
-    <t>Anton Slepyshev</t>
-  </si>
-  <si>
-    <t>Nate Guenin</t>
-  </si>
-  <si>
-    <t>Micheal Haley</t>
-  </si>
-  <si>
-    <t>Chandler Stephenson</t>
-  </si>
-  <si>
-    <t>Evan Rodrigues</t>
-  </si>
-  <si>
-    <t>Tim Schaller</t>
-  </si>
-  <si>
-    <t>Scott Harrington</t>
-  </si>
-  <si>
-    <t>Ronalds Kenins</t>
-  </si>
-  <si>
-    <t>Jarred Tinordi</t>
-  </si>
-  <si>
-    <t>Andrey Pedan</t>
-  </si>
-  <si>
-    <t>Josh Anderson</t>
-  </si>
-  <si>
-    <t>Vinnie Hinostroza</t>
-  </si>
-  <si>
-    <t>Seth Griffith</t>
-  </si>
-  <si>
-    <t>Craig Cunningham</t>
-  </si>
-  <si>
-    <t>Cody Bass</t>
-  </si>
-  <si>
-    <t>Griffin Reinhart</t>
-  </si>
-  <si>
-    <t>Connor Brown</t>
-  </si>
-  <si>
-    <t>David Rundblad</t>
-  </si>
-  <si>
-    <t>Alan Quine</t>
-  </si>
-  <si>
-    <t>Daniel Catenacci</t>
-  </si>
-  <si>
-    <t>Martin Havlat</t>
-  </si>
-  <si>
-    <t>Brett Kulak</t>
-  </si>
-  <si>
-    <t>Kevin Fiala</t>
-  </si>
-  <si>
-    <t>Patrick Sieloff</t>
-  </si>
-  <si>
-    <t>Mike Angelidis</t>
-  </si>
-  <si>
-    <t>Taylor Leier</t>
-  </si>
-  <si>
-    <t>Jared Boll</t>
-  </si>
-  <si>
-    <t>Zac Dalpe</t>
-  </si>
-  <si>
-    <t>Nic Dowd</t>
-  </si>
-  <si>
-    <t>Marek Hrivik</t>
-  </si>
-  <si>
-    <t>Scott Mayfield</t>
-  </si>
-  <si>
-    <t>Tyler Graovac</t>
-  </si>
-  <si>
-    <t>Rinat Valiev</t>
-  </si>
-  <si>
-    <t>Andrew Miller</t>
-  </si>
-  <si>
-    <t>Patrick Brown</t>
-  </si>
-  <si>
-    <t>Derek Ryan</t>
-  </si>
-  <si>
-    <t>Brent Regner</t>
-  </si>
-  <si>
-    <t>Joel Vermin</t>
-  </si>
-  <si>
-    <t>Ryan Johnston</t>
-  </si>
-  <si>
-    <t>Chris Butler</t>
-  </si>
-  <si>
-    <t>Xavier Ouellet</t>
-  </si>
-  <si>
-    <t>Michael Matheson</t>
-  </si>
-  <si>
-    <t>Charles Hudon</t>
-  </si>
-  <si>
-    <t>Ryan Hartman</t>
-  </si>
-  <si>
-    <t>Ben Street</t>
-  </si>
-  <si>
-    <t>Dylan Olsen</t>
-  </si>
-  <si>
-    <t>Andrew Agozzino</t>
-  </si>
-  <si>
-    <t>Buddy Robinson</t>
-  </si>
-  <si>
-    <t>Bryan Lerg</t>
-  </si>
-  <si>
-    <t>Taylor Beck</t>
-  </si>
-  <si>
-    <t>Derek Forbort</t>
-  </si>
-  <si>
-    <t>Gustav Olofsson</t>
-  </si>
-  <si>
-    <t>Paul Carey</t>
-  </si>
-  <si>
-    <t>Jason Dickinson</t>
-  </si>
-  <si>
-    <t>Blake Pietila</t>
-  </si>
-  <si>
-    <t>Johan Franzen</t>
-  </si>
-  <si>
-    <t>Patrice Cormier</t>
-  </si>
-  <si>
-    <t>Tomas Nosek</t>
-  </si>
-  <si>
-    <t>John Scott</t>
-  </si>
-  <si>
-    <t>Clarke MacArthur</t>
-  </si>
-  <si>
-    <t>Adam Pelech</t>
-  </si>
-  <si>
-    <t>Phil Varone</t>
-  </si>
-  <si>
-    <t>Emile Poirier</t>
-  </si>
-  <si>
-    <t>Andrew Campbell</t>
-  </si>
-  <si>
-    <t>Brad Hunt</t>
-  </si>
-  <si>
-    <t>Sam Carrick</t>
-  </si>
-  <si>
-    <t>Jim O'Brien</t>
-  </si>
-  <si>
-    <t>Ben Harpur</t>
-  </si>
-  <si>
-    <t>Brendan Woods</t>
-  </si>
-  <si>
-    <t>Andrew Ference</t>
-  </si>
-  <si>
-    <t>Vojtech Mozik</t>
-  </si>
-  <si>
-    <t>Brett Ritchie</t>
-  </si>
-  <si>
-    <t>Max Friberg</t>
-  </si>
-  <si>
-    <t>Chris Summers</t>
-  </si>
-  <si>
-    <t>Kenny Agostino</t>
-  </si>
-  <si>
-    <t>Sergey Tolchinsky</t>
-  </si>
-  <si>
-    <t>Stuart Percy</t>
-  </si>
-  <si>
-    <t>Colin McDonald</t>
-  </si>
-  <si>
-    <t>Cole Schneider</t>
-  </si>
-  <si>
-    <t>Mark Stuart</t>
-  </si>
-  <si>
-    <t>Jeremy Welsh</t>
-  </si>
-  <si>
-    <t>Tom Sestito</t>
-  </si>
-  <si>
-    <t>Alex Khokhlachev</t>
-  </si>
-  <si>
-    <t>Kurtis Gabriel</t>
-  </si>
-  <si>
-    <t>Kyle Baun</t>
-  </si>
-  <si>
-    <t>Brett Bulmer</t>
-  </si>
-  <si>
-    <t>Curtis McKenzie</t>
-  </si>
-  <si>
-    <t>Devin Shore</t>
-  </si>
-  <si>
-    <t>Dominik Simon</t>
-  </si>
-  <si>
-    <t>Dean Kukan</t>
-  </si>
-  <si>
-    <t>Aaron Ness</t>
-  </si>
-  <si>
-    <t>Tyler Wotherspoon</t>
-  </si>
-  <si>
-    <t>Chase De Leo</t>
-  </si>
-  <si>
-    <t>Andre Benoit</t>
-  </si>
-  <si>
-    <t>Brody Sutter</t>
-  </si>
-  <si>
-    <t>Miles Wood</t>
-  </si>
-  <si>
-    <t>Slater Koekkoek</t>
-  </si>
-  <si>
-    <t>Tyson Strachan</t>
-  </si>
-  <si>
-    <t>Matt Greene</t>
-  </si>
-  <si>
-    <t>Steven Santini</t>
-  </si>
-  <si>
-    <t>Chad Ruhwedel</t>
-  </si>
-  <si>
-    <t>Stefan Noesen</t>
-  </si>
-  <si>
-    <t>Oliver Kylington</t>
-  </si>
-  <si>
-    <t>Marc-Andre Gragnani</t>
-  </si>
-  <si>
-    <t>Christoph Bertschy</t>
-  </si>
-  <si>
-    <t>Jordan Caron</t>
-  </si>
-  <si>
-    <t>Trevor Carrick</t>
-  </si>
-  <si>
-    <t>Borna Rendulic</t>
-  </si>
-  <si>
-    <t>Markus Hannikainen</t>
-  </si>
-  <si>
-    <t>Eric Boulton</t>
-  </si>
-  <si>
-    <t>John Ramage</t>
-  </si>
-  <si>
-    <t>Alex Grant</t>
-  </si>
-  <si>
-    <t>Michael Paliotta</t>
-  </si>
-  <si>
-    <t>Michael Sgarbossa</t>
-  </si>
-  <si>
-    <t>Kael Mouillierat</t>
-  </si>
-  <si>
-    <t>Ross Johnston</t>
-  </si>
-  <si>
-    <t>Christian Thomas</t>
-  </si>
-  <si>
-    <t>John McCarthy</t>
-  </si>
-  <si>
-    <t>Josh Morrissey</t>
-  </si>
-  <si>
-    <t>Corey Potter</t>
-  </si>
-  <si>
-    <t>Mark McNeill</t>
-  </si>
-  <si>
-    <t>Drew Shore</t>
-  </si>
-  <si>
-    <t>Chris Brown</t>
-  </si>
-  <si>
-    <t>Bracken Kearns</t>
-  </si>
-  <si>
-    <t>Alex Friesen</t>
-  </si>
-  <si>
-    <t>Barclay Goodrow</t>
-  </si>
-  <si>
-    <t>Tye McGinn</t>
-  </si>
-  <si>
-    <t>Josh Archibald</t>
-  </si>
-  <si>
-    <t>Turner Elson</t>
-  </si>
-  <si>
-    <t>Joe Vitale</t>
-  </si>
-  <si>
-    <t>Julian Melchiori</t>
-  </si>
-  <si>
-    <t>Michael Keranen</t>
-  </si>
-  <si>
-    <t>Pavel Zacha</t>
-  </si>
-  <si>
-    <t>Brett Lernout</t>
-  </si>
-  <si>
-    <t>Taylor Fedun</t>
-  </si>
-  <si>
-    <t>Esa Lindell</t>
-  </si>
-  <si>
-    <t>John McFarland</t>
-  </si>
-  <si>
-    <t>Sean Collins</t>
-  </si>
-  <si>
-    <t>Sonny Milano</t>
-  </si>
-  <si>
-    <t>James Wisniewski</t>
-  </si>
-  <si>
-    <t>Brad Stuart</t>
-  </si>
-  <si>
-    <t>Paul Thompson</t>
-  </si>
-  <si>
-    <t>Matt Irwin</t>
-  </si>
-  <si>
-    <t>Yanni Gourde</t>
-  </si>
-  <si>
-    <t>Ryan Carpenter</t>
-  </si>
-  <si>
-    <t>Philip Samuelsson</t>
-  </si>
-  <si>
-    <t>Ryan Stanton</t>
-  </si>
-  <si>
-    <t>Bud Holloway</t>
-  </si>
-  <si>
-    <t>JC Lipon</t>
-  </si>
-  <si>
-    <t>Jeff Schultz</t>
-  </si>
-  <si>
-    <t>Viktor Loov</t>
-  </si>
-  <si>
-    <t>Eric Tangradi</t>
-  </si>
-  <si>
-    <t>Luke Witkowski</t>
-  </si>
-  <si>
-    <t>Morgan Ellis</t>
-  </si>
-  <si>
-    <t>Seth Helgeson</t>
-  </si>
-  <si>
-    <t>Tommy Cross</t>
-  </si>
-  <si>
-    <t>Tim Jackman</t>
-  </si>
-  <si>
-    <t>Matt Taormina</t>
+    <t xml:space="preserve">PlayerName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlusMinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FaceoffWinPercentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShiftsPerGame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PointPerGame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShootingPercentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient with value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Pavelski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny Gaudreau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anze Kopitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik Karlsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrice Bergeron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Scheifele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sidney Crosby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claude Giroux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dustin Byfuglien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamie Benn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Kane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blake Wheeler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Toffoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlie Coyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyson Barrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan Toews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sean Monahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vladimir Tarasenko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Pacioretty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleksander Barkov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Pietrangelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikkel Boedker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikita Kucherov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mika Zibanejad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drew Doughty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan O'Reilly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brad Marchand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patric Hornqvist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Tavares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derick Brassard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loui Eriksson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cam Atkinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derek Stepan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Marleau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roman Josi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven Stamkos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Suter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T.J. Oshie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wayne Simmonds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicklas Backstrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Galchenyuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Sedin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brayden Schenn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack Eichel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazem Kadri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikael Backlund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavel Datsyuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Backes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filip Forsberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan MacKinnon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evgeni Malkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Duchene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mats Zuccarello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zack Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artemi Panarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Myers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Parenteau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver Ekman-Larsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikko Koivu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Saad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikael Granlund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakub Voracek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Trocheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Krejci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Henrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Gabriel Pageau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff Carter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reilly Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phil Kessel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Landeskog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Eberle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Giordano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Neal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Staal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zach Parise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nino Niederreiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyle Palmieri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam Reinhart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lars Eller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Ovechkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frans Nielsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evgeny Kuznetsov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leo Komarov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bo Horvat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Ladd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boone Jenner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Kesler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leon Draisaitl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Hoffman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Steen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Kunitz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ Brodie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Shattenkirk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kris Letang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathieu Perreault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sean Couturier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomas Tatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Spezza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff Skinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Hedman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dylan Larkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jared Spurgeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomas Hertl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ondrej Palat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vladislav Namestnikov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bobby Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teddy Purcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl Soderberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jannik Hansen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Seguin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drew Stafford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corey Perry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connor McDavid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troy Brouwer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Grabner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shayne Gostisbehere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Getzlaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Zucker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.T. Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Staal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Killorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam Bennett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryan Little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Nugent-Hopkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaromir Jagr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artem Anisimov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Abdelkader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Stastny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Sharp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Kreider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blake Comeau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jussi Jokinen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brock Nelson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustav Nyquist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl Hagelin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Cullen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarome Iginla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Leddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morgan Rielly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee Stempniak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brendan Gallagher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cam Fowler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikolaj Ehlers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthony Duclair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teuvo Teravainen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrik Zetterberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Craig Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dustin Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomas Plekanec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valtteri Filppula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Burmistrov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shane Doan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milan Lucic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Foligno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robby Fabbri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elias Lindholm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Streit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcus Johansson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rickard Rakell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marian Hossa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan Huberdeau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P.K. Subban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travis Zajac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent Burns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomas Fleischmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine Vermette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian Gionta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Klingberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacob Trouba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jake Muzzin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher Tanev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riley Sheahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Hanzal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dougie Hamilton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan Boyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Domi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Dubinsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Thornton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle Jarnkrok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobias Rieder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik Haula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Rask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Pominville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Colborne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cody Ceci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darren Helm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrik Sedin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brad Richardson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Karlsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesper Fast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evander Kane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Johansen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Frolik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anton Stralman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasmus Ristolainen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Hutton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyle Okposo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cody Eakin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Raffl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent Seabrook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamie McGinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Niskanen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcus Foligno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jori Lehtera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dale Weise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shawn Matthias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Faulk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakob Silfverberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Martinook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rick Nash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colton Parayko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Lowry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Cogliano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Carlson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Bjugstad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johan Larsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyle Turris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seth Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sven Baertschi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sami Vatanen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Winnik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandre Burrows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.T. Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radim Vrbata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Letestu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Goligoski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trevor Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan McDonagh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Spooner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrei Markov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Beleskey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian Campbell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktor Stalberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Bozak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Murray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andre Burakovsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Tanguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Hayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanner Pearson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torey Krug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattias Janmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jake Gardiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeri Nichushkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shea Weber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logan Couture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hampus Lindholm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ales Hemsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micheal Ferland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Hartnell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Fisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Holden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Wennberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duncan Keith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Lindberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niklas Kronwall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikhail Grigorenko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benoit Pouliot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Calvert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Shaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattias Ekholm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian Dumoulin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nail Yakupov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marian Gaborik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Holland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron Ekblad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris VandeVelde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torrey Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Vanek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Stajan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Desharnais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Chiasson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierre-Edouard Bellemare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine Roussel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan Girardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Bartkowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiri Hudler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brad Richards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casey Cizikas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joonas Donskoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noah Hanifin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zemgus Girgensons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John-Michael Liles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh Bailey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Byron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Pirri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riley Nash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Tierney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtis Lazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Garbutt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brayden McNabb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Perron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anders Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alec Martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Bonino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keith Yandle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trevor van Riemsdyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas Brodin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Schlemko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jared McCann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Dumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Ribeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jimmy Hayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian Boyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Moulson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dion Phaneuf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmitry Orlov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikolay Kulemin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Larsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radko Gudas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Callahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Strome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devante Smith-Pelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke Glendening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Ellis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominic Moore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke Schenn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Braun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh Jooris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Schultz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Scandella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrej Sekera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kris Versteeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Chimera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Cammalleri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Klein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olli Maatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Fehr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Pastrnak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danny DeKeyser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brett Connolly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emerson Etem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Laughton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Desjardins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colin Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Edler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaden Schwartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan Hamhuis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shawn Horcoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James van Riemsdyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joakim Nordstrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kris Russell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikhail Grabovski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melker Karlsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cody Franson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Nieto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francois Beauchemin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brett Pesce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trevor Daley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nate Schmidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan Ericsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl Alzner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacob Josefson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colton Sceviour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh Manson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyle Quincey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travis Hamonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyle Chipchura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brooks Laich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vernon Fiddler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jake McCabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Cracknell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc Staal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byron Froese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landon Ferraro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyle Brodziak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Copp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Bieksa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jay McClement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jay Beagle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scottie Upshall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Savard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen Gionta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linden Vey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cedric Paquette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaccob Slavin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zach Bogosian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergey Kalinin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Fontaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Thorburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Hendricks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Demers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andy Greene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan Marchessault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cal Clutterbuck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Legwand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anton Lander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarret Stoll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy Wingels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff Petry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrej Sustr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmitrij Jaskin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braydon Coburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joffrey Lupul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Maroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrej Nestrasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauri Korpikoski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shane Prince</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markus Granlund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dennis Wideman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Spaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Carle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh Gorges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brendan Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Wideman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zdeno Chara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brad Boyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack Skille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Santorelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrik Berglund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel Armia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin de Haan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktor Arvidsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phillip Danault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Fayne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Connauton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deryk Engelland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toby Enstrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexei Emelin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryan Rust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Davidson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ron Hainsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Terry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik Condra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derek Dorsett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreas Athanasiou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derek MacKenzie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sven Andrighetto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl Gunnarsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cody McLeod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jake Virtanen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmitry Kulikov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Hickey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Carter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcus Kruger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damon Severson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Chiarot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iiro Pakarinen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordin Tootoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Lecavalier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Neil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conor Sheary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Cousins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connor Murphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Eaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darnell Nurse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny Boychuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam Gagner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austin Watson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andy Andreoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miikka Salomaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan Gerbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Del Zotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Garrison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwight King</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yannick Weber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phillip Di Giuseppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evgeny Medvedev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan Beaulieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milan Michalek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnus Paajarvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Biega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Lovejoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyd Gordon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktor Tikhonov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lance Bouma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zack Kassian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny Oduya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Gryba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregory Campbell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc Methot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Kennedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicklas Grossmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexey Marchenko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jyrki Jokipakka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Pysyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Kuhnhackl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Vatrano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas Deslauriers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Nylander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radek Faksa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel Edmundson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Wagner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logan Shaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Sutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordie Benn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian Flynn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dennis Seidenberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc-Edouard Vlasic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreas Martinsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Schultz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikita Nesterov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca Sbisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marek Zidlicky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinton Howden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marko Dano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greg Pateryn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Gaustad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Porter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Porter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colin Greening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ian Cole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Stewart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik Gudbranson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Reaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiri Sekac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beau Bennett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakub Kindl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Arcobello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nic Petan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Richards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Blandisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reid Boucher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.J. Umberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Petrovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michal Rozsival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Hunwick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barret Jackman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nate Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Nystrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bobby Farnham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanner Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Moore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Bortuzzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dainius Zubrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niklas Hjalmarsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Manning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teemu Pulkkinen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Puempel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Klefbom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willie Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cody Hodgson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Dzingel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Ehrhoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joonas Kemppainen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Higgins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roman Polak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shawn Thornton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomas Jurco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rob Scuderi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zach Redmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Talbot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Carr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clayton Stoner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Barberio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan Drouin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Prust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colton Sissons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanner Kero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyle Clifford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rene Bourque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jay Bouwmeester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Nolan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dylan McIlrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Borowiecki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Mashinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zach Hyman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Chorney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael McCarron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brad Malone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenden Dillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fedor Tyutin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Panik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zach Trotman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergei Plotnikov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuomo Ruutu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Murphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefan Matteau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalton Prout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefan Elliott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevan Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Clendening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Latta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zbynek Michalek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Gilbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Gelinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jared Cowen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connor Carrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Downie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shea Theodore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michal Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Bollig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brendan Gaunce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Schroeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Ritchie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derrick Pouliot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocco Grimaldi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Marincin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mason Raymond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik Gustafsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Blunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brooks Orpik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew MacDonald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlo Colaiacovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Pardy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Corrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oskar Sundqvist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dylan DeMelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Wiercioch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Postma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cody Goloubef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Oesterle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Despres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiri Tlusty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zac Rinaldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamie McBain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klas Dahlbeck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Ennis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrik Nemeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Clarkson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max McCormick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Folin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Halischuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktor Svedberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacob De La Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh Leivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Randell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon Merrill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Bodnarchuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikita Soshnikov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brock McGinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Bigras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nate Prosser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cal O'Reilly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian O'Neill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerby Rychel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Bourque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven Kampfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikita Zadorov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam McQuaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Ott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthony Mantha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joakim Andersson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Sislo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Kelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Sprong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korbinian Holzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connor Brickley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derek Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikita Tryamkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corban Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ty Rattie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryan Bickell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Morrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascal Dupuis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Semin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanislav Galiev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dave Bolland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Warsofsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrett Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Paille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colin Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Falk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian Strait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drew Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garnet Hathaway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Pulock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Reilly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greg McKegg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fredrik Claesson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke Gazdic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamie Oleksiak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthony Bitetto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladislav Smid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Bernier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petter Granberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrik Elias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jujhar Khaira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Gaudet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brendan Leipsic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Weal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakub Nakladal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunter Shinkaruk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandre Grenier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthony Peluso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Tennyson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rob Klinkhammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darren Dietz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich Clune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brady Skjei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ Brennan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver Bjorkstrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dave Dziurzynski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noel Acciari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Bailey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobias Lindberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Bartley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Weber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikolay Goldobin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen Johns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Kostka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikko Rantanen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Chaput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Gormley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freddie Hamilton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyle Rau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurent Dauphin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Lessio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasperi Kapanen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dustin Jeffrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hudson Fasching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dennis Everberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Kosmachuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirco Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikita Nikitin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petteri Lindbohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frederik Gauthier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zach Sill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jayson Megna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel Hanley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travis Moen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anton Slepyshev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nate Guenin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micheal Haley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandler Stephenson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evan Rodrigues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Schaller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Harrington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronalds Kenins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarred Tinordi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrey Pedan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinnie Hinostroza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seth Griffith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Craig Cunningham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cody Bass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griffin Reinhart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connor Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Rundblad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan Quine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Catenacci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Havlat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brett Kulak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Fiala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Sieloff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Angelidis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Leier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jared Boll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zac Dalpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nic Dowd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marek Hrivik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Mayfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Graovac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rinat Valiev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derek Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent Regner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel Vermin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Johnston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Butler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xavier Ouellet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Matheson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Hudon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Hartman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dylan Olsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Agozzino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buddy Robinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryan Lerg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Beck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derek Forbort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustav Olofsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Carey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Dickinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blake Pietila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johan Franzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrice Cormier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomas Nosek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarke MacArthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Pelech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phil Varone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emile Poirier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Campbell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brad Hunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam Carrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim O'Brien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Harpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brendan Woods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Ference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vojtech Mozik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brett Ritchie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Friberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Summers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenny Agostino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergey Tolchinsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuart Percy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colin McDonald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cole Schneider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Stuart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremy Welsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Sestito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Khokhlachev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurtis Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyle Baun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brett Bulmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtis McKenzie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devin Shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominik Simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dean Kukan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron Ness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Wotherspoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chase De Leo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andre Benoit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brody Sutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miles Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slater Koekkoek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyson Strachan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Greene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven Santini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad Ruhwedel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefan Noesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver Kylington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc-Andre Gragnani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christoph Bertschy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Caron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trevor Carrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borna Rendulic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markus Hannikainen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Boulton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Ramage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Paliotta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Sgarbossa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kael Mouillierat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross Johnston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John McCarthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh Morrissey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corey Potter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark McNeill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drew Shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bracken Kearns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Friesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barclay Goodrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tye McGinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh Archibald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turner Elson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Vitale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julian Melchiori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Keranen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavel Zacha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brett Lernout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Fedun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esa Lindell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John McFarland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sean Collins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonny Milano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Wisniewski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brad Stuart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Irwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanni Gourde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Carpenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philip Samuelsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Stanton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bud Holloway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC Lipon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff Schultz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktor Loov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Tangradi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke Witkowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morgan Ellis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seth Helgeson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Jackman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Taormina</t>
   </si>
 </sst>
 </file>
@@ -2743,13 +2748,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2771,6 +2777,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2844,28 +2851,28 @@
   <dimension ref="A1:P892"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.21428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.46428571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.31632653061225"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.46428571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.9030612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.9336734693878"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.46428571428571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.31632653061225"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.11734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.27551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.55612244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.55102040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.41836734693878"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.55102040816327"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.98469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.5255102040816"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.55102040816327"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.9591836734694"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.41836734693878"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.5102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
